--- a/result/cdf.xlsx
+++ b/result/cdf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\SDBR_extend\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9AC213-5739-4B89-8FF7-B43316FF5A87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EA07CF-5F3D-4AF5-B12E-D0C9413183E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" firstSheet="3" activeTab="4" xr2:uid="{364FC0C9-0505-46B4-948F-D94C6BA5E846}"/>
   </bookViews>
@@ -16,15 +16,15 @@
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="etb" sheetId="7" state="hidden" r:id="rId2"/>
     <sheet name="etg" sheetId="8" state="hidden" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="12" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="11" r:id="rId6"/>
+    <sheet name="old" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">etb!$A$1:$N$9</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">etg!$A$1:$N$9</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">old!$A$1:$G$13</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$N$9</definedName>
-    <definedName name="ExternalData_1" localSheetId="4" hidden="1">Sheet4!$A$1:$G$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>Nsim</t>
   </si>
@@ -162,12 +162,21 @@
   <si>
     <t>Ana</t>
   </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +184,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,8 +217,20 @@
         <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -222,21 +262,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -320,8 +398,8 @@
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{5F74B4AF-D570-47B1-A480-8A70004AF9D8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="9" unboundColumnsRight="1">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
@@ -329,6 +407,7 @@
       <queryTableField id="5" name="Column5" tableColumnId="5"/>
       <queryTableField id="6" name="Column6" tableColumnId="6"/>
       <queryTableField id="7" name="Column7" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -404,9 +483,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C234AEE6-B32F-4AAA-AF4E-D1EECE662746}" name="cdf" displayName="cdf" ref="A1:G13" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G13" xr:uid="{4C45F25E-DC10-42E3-A086-264B82E8CFB9}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C234AEE6-B32F-4AAA-AF4E-D1EECE662746}" name="cdf" displayName="cdf" ref="A1:H13" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H13" xr:uid="{4C45F25E-DC10-42E3-A086-264B82E8CFB9}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{CFD532A8-0867-4A3E-B314-7A9682F1B70D}" uniqueName="1" name="n_SIM" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{85E8D95E-9AE0-4C35-BCE1-D1200779BB56}" uniqueName="2" name="Ts" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{2B05CFFD-F3E9-42FC-90B7-7FDE86E872FF}" uniqueName="3" name="T0" queryTableFieldId="3"/>
@@ -414,6 +493,9 @@
     <tableColumn id="5" xr3:uid="{19F38489-4A4D-40F5-8B59-1AE84C69BF5D}" uniqueName="5" name="Distrition" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{8A14543A-767D-47DA-9435-40DA0D7659CC}" uniqueName="6" name="Sim" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{DAD719CD-F3ED-4277-8173-F234C65F78B9}" uniqueName="7" name="Ana" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{4CDC6E34-94CB-4087-BE7D-40C097E8BD40}" uniqueName="8" name="Column1" queryTableFieldId="8" dataDxfId="0">
+      <calculatedColumnFormula>(F2-G2)/G2</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1969,105 +2051,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FEF1D3-25C5-4063-8713-78CFB165487B}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7001EE7A-95B9-4A33-87C3-651F786F81A2}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="A4:H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1">
-        <v>64</v>
-      </c>
-      <c r="H1" s="3">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0.76359999999999995</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.60650000000000004</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.42009999999999997</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.2429</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.10879999999999999</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4.4400000000000002E-2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="H3" s="3">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.73080000000000001</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.56440000000000001</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.3911</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="F4" s="4">
-        <v>9.4700000000000006E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7001EE7A-95B9-4A33-87C3-651F786F81A2}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,7 +2063,7 @@
     <col min="1" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2097,8 +2085,11 @@
       <c r="G1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>50000</v>
       </c>
@@ -2120,8 +2111,9 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50000</v>
       </c>
@@ -2143,8 +2135,12 @@
       <c r="G3">
         <v>7.0951E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="15">
+        <f t="shared" ref="H3:H13" si="0">(F3-G3)/G3</f>
+        <v>0.31752899888655539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50000</v>
       </c>
@@ -2166,8 +2162,12 @@
       <c r="G4">
         <v>0.13469999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="15">
+        <f t="shared" si="0"/>
+        <v>0.16184112843355616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50000</v>
       </c>
@@ -2189,8 +2189,12 @@
       <c r="G5">
         <v>0.25782300000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="15">
+        <f t="shared" si="0"/>
+        <v>7.9500277322038709E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50000</v>
       </c>
@@ -2212,8 +2216,12 @@
       <c r="G6">
         <v>0.41298099999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="15">
+        <f t="shared" si="0"/>
+        <v>4.9442952581353672E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50000</v>
       </c>
@@ -2235,8 +2243,12 @@
       <c r="G7">
         <v>0.57064499999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="15">
+        <f t="shared" si="0"/>
+        <v>3.8684295840671644E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50000</v>
       </c>
@@ -2258,8 +2270,12 @@
       <c r="G8">
         <v>0.65034499999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="15">
+        <f t="shared" si="0"/>
+        <v>3.8279682322459624E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50000</v>
       </c>
@@ -2281,8 +2297,12 @@
       <c r="G9">
         <v>0.74986600000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="15">
+        <f t="shared" si="0"/>
+        <v>3.5171617328962783E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50000</v>
       </c>
@@ -2304,8 +2324,12 @@
       <c r="G10">
         <v>0.86687499999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="15">
+        <f t="shared" si="0"/>
+        <v>2.8498918529199814E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50000</v>
       </c>
@@ -2327,8 +2351,12 @@
       <c r="G11">
         <v>0.96069599999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="15">
+        <f t="shared" si="0"/>
+        <v>2.7671604753220638E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50000</v>
       </c>
@@ -2350,8 +2378,12 @@
       <c r="G12">
         <v>0.96614100000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="15">
+        <f t="shared" si="0"/>
+        <v>3.1754164247247564E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50000</v>
       </c>
@@ -2372,6 +2404,10 @@
       </c>
       <c r="G13">
         <v>0.96653999999999995</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" si="0"/>
+        <v>3.449417509880609E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2382,15 +2418,685 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96CA05D-38EB-47CB-978D-314B02512885}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>50000</v>
+      </c>
+      <c r="B2" s="1">
+        <v>600</v>
+      </c>
+      <c r="C2" s="1">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>50000</v>
+      </c>
+      <c r="B3" s="3">
+        <v>600</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>30</v>
+      </c>
+      <c r="G3" s="11">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="H3" s="16">
+        <v>8.9875700000000003E-2</v>
+      </c>
+      <c r="I3" s="15">
+        <f>(G3-H3)/H3</f>
+        <v>3.8100398661707127E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>50000</v>
+      </c>
+      <c r="B4" s="1">
+        <v>600</v>
+      </c>
+      <c r="C4" s="1">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.15631999999999999</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.17100299999999999</v>
+      </c>
+      <c r="I4" s="15">
+        <f t="shared" ref="I4:I13" si="0">(G4-H4)/H4</f>
+        <v>-8.5863990690221825E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>50000</v>
+      </c>
+      <c r="B5" s="3">
+        <v>600</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>120</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.27544000000000002</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.28860999999999998</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="0"/>
+        <v>-4.5632514465888084E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>50000</v>
+      </c>
+      <c r="B6" s="1">
+        <v>600</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>180</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.36902000000000001</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.35218699999999997</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="0"/>
+        <v>4.7795631298145715E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>50000</v>
+      </c>
+      <c r="B7" s="3">
+        <v>600</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>240</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.45942</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.46623199999999998</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="0"/>
+        <v>-1.4610751728753035E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>50000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>600</v>
+      </c>
+      <c r="C8" s="1">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>480</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.69584000000000001</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0.72738499999999995</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="0"/>
+        <v>-4.3367680114382252E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>50000</v>
+      </c>
+      <c r="B9" s="3">
+        <v>600</v>
+      </c>
+      <c r="C9" s="3">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <v>600</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.76927999999999996</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0.79311399999999999</v>
+      </c>
+      <c r="I9" s="15">
+        <f t="shared" si="0"/>
+        <v>-3.005116540623419E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>50000</v>
+      </c>
+      <c r="B10" s="1">
+        <v>600</v>
+      </c>
+      <c r="C10" s="1">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1">
+        <v>900</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.89114000000000004</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.88633899999999999</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="0"/>
+        <v>5.4166633759769739E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>50000</v>
+      </c>
+      <c r="B11" s="3">
+        <v>600</v>
+      </c>
+      <c r="C11" s="3">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.98806000000000005</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.97413499999999997</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="0"/>
+        <v>1.4294733276188697E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>50000</v>
+      </c>
+      <c r="B12" s="1">
+        <v>600</v>
+      </c>
+      <c r="C12" s="1">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2400</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.99685999999999997</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0.97250499999999995</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="0"/>
+        <v>2.5043573040755593E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>50000</v>
+      </c>
+      <c r="B13" s="3">
+        <v>600</v>
+      </c>
+      <c r="C13" s="3">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3">
+        <v>100</v>
+      </c>
+      <c r="E13" s="3">
+        <v>65</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.99987999999999999</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0.97377499999999995</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="0"/>
+        <v>2.6808040871864697E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FEF1D3-25C5-4063-8713-78CFB165487B}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="A15:K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1">
+        <v>64</v>
+      </c>
+      <c r="H1" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.60650000000000004</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.42009999999999997</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.2429</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.73080000000000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.3911</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F4" s="4">
+        <v>9.4700000000000006E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3">
+        <v>120</v>
+      </c>
+      <c r="D8" s="1">
+        <v>180</v>
+      </c>
+      <c r="E8" s="3">
+        <v>240</v>
+      </c>
+      <c r="F8" s="1">
+        <v>480</v>
+      </c>
+      <c r="G8" s="3">
+        <v>600</v>
+      </c>
+      <c r="H8" s="1">
+        <v>900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2400</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.15631999999999999</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.27544000000000002</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.36902000000000001</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.45942</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.69584000000000001</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.76927999999999996</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.89114000000000004</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.98806000000000005</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.99685999999999997</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.99987999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>8.9875700000000003E-2</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.126669</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.28860999999999998</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.42435299999999998</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.52896500000000002</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.65423100000000001</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.73060000000000003</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0.88633899999999999</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.97413499999999997</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0.97250499999999995</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.97377499999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0.15631999999999999</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.27544000000000002</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.36902000000000001</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.45942</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.69584000000000001</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.76927999999999996</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.89114000000000004</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.98806000000000005</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.99685999999999997</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.99987999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>8.9875700000000003E-2</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0.17100299999999999</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.28860999999999998</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.35218699999999997</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0.46623199999999998</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.72738499999999995</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0.79311399999999999</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0.88633899999999999</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0.97413499999999997</v>
+      </c>
+      <c r="J15" s="17">
+        <v>0.97250499999999995</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0.97377499999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
